--- a/src/main/resources/files/Employee on-board.xlsx
+++ b/src/main/resources/files/Employee on-board.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rvenkata\IdeaProjects\Employee-Management-System\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rvenkata\IdeaProjects\ems-mybatis-liquibase\src\main\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8910971-6712-4DA1-BF25-A9812043291D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4B837C-8D6A-4A12-B158-A322CAE1EE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A254C6E5-C564-4FA4-920D-09B8519F4035}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>first_name</t>
   </si>
@@ -92,7 +92,22 @@
     <t>is_manager</t>
   </si>
   <si>
-    <t>rvkrishna130520013@gmail.com</t>
+    <t>job_title</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>confirm_password</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>PROJECT_MANAGER</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -137,10 +152,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -160,9 +176,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -200,7 +216,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -306,7 +322,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -448,7 +464,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -456,28 +472,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0966AD-23CA-4639-9E3F-0B3647766238}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.21875" customWidth="1"/>
-    <col min="11" max="11" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -511,8 +530,17 @@
       <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -520,7 +548,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -537,11 +565,18 @@
       <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1" xr:uid="{0D0966AD-23CA-4639-9E3F-0B3647766238}"/>
+  <autoFilter ref="A1:N1" xr:uid="{0D0966AD-23CA-4639-9E3F-0B3647766238}"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{7A0C5357-20F2-499E-9DC4-59F5A3A8C539}"/>
   </hyperlinks>

--- a/src/main/resources/files/Employee on-board.xlsx
+++ b/src/main/resources/files/Employee on-board.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rvenkata\IdeaProjects\ems-mybatis-liquibase\src\main\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163EF4CE-30D8-43DD-9787-D9518E2577C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5247A1-B9A3-4CB1-A138-409B55667C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A254C6E5-C564-4FA4-920D-09B8519F4035}"/>
   </bookViews>
@@ -107,1116 +107,9 @@
     <t>PROJECT_MANAGER</t>
   </si>
   <si>
-    <t>venkyrepalle2824@gmail.com1</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com2</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com3</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com4</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com5</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com6</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com7</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com8</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com9</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com10</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com11</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com12</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com13</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com14</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com15</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com16</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com17</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com18</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com19</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com20</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com21</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com22</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com23</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com24</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com25</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com26</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com27</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com28</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com29</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com30</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com31</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com32</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com33</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com34</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com35</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com36</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com37</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com38</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com39</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com40</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com41</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com42</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com43</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com44</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com45</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com46</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com47</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com48</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com49</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com50</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com51</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com52</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com53</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com54</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com55</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com56</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com57</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com58</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com59</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com60</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com61</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com62</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com63</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com64</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com65</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com66</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com67</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com68</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com69</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com70</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com71</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com72</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com73</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com74</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com75</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com76</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com77</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com78</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com79</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com80</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com81</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com82</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com83</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com84</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com85</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com86</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com87</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com88</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com89</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com90</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com91</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com92</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com93</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com94</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com95</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com96</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com97</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com98</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com99</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com100</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com101</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com102</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com103</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com104</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com105</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com106</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com107</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com108</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com109</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com110</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com111</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com112</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com113</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com114</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com115</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com116</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com117</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com118</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com119</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com120</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com121</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com122</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com123</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com124</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com125</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com126</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com127</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com128</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com129</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com130</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com131</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com132</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com133</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com134</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com135</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com136</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com137</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com138</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com139</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com140</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com141</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com142</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com143</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com144</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com145</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com146</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com147</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com148</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com149</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com150</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com151</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com152</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com153</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com154</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com155</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com156</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com157</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com158</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com159</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com160</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com161</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com162</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com163</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com164</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com165</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com166</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com167</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com168</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com169</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com170</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com171</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com172</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com173</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com174</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com175</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com176</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com177</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com178</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com179</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com180</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com181</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com182</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com183</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com184</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com185</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com186</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com187</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com188</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com189</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com190</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com191</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com192</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com193</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com194</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com195</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com196</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com197</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com198</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com199</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com200</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com201</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com202</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com203</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com204</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com205</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com206</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com207</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com208</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com209</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com210</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com211</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com212</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com213</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com214</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com215</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com216</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com217</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com218</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com219</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com220</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com221</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com222</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com223</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com224</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com225</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com226</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com227</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com228</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com229</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com230</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com231</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com232</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com233</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com234</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com235</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com236</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com237</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com238</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com239</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com240</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com241</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com242</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com243</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com244</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com245</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com246</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com247</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com248</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com249</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com250</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com251</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com252</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com253</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com254</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com255</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com256</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com257</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com258</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com259</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com260</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com261</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com262</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com263</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com264</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com265</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com266</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com267</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com268</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com269</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com270</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com271</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com272</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com273</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com274</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com275</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com276</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com277</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com278</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com279</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com280</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com281</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com282</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com283</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com284</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com285</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com286</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com287</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com288</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com289</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com290</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com291</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com292</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com293</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com294</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com295</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com296</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com297</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com298</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com299</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com300</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com301</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com302</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com303</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com304</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com305</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com306</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com307</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com308</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com309</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com310</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com311</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com312</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com313</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com314</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com315</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com316</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com317</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com318</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com319</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com320</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com321</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com322</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com323</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com324</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com325</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com326</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com327</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com328</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com329</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com330</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com331</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com332</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com333</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com334</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com335</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com336</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com337</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com338</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com339</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com340</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com341</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com342</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com343</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com344</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com345</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com346</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com347</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com348</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com349</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com350</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com351</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com352</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com353</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com354</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com355</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com356</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com357</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com358</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com359</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com360</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com361</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com362</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com363</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com364</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com365</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com366</t>
-  </si>
-  <si>
     <t>9059732824</t>
   </si>
   <si>
-    <t>venkyrepalle2824@gmail.com367</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com368</t>
-  </si>
-  <si>
-    <t>venkyrepalle2824@gmail.com369</t>
-  </si>
-  <si>
     <t>venkyrepalle2824@gmail.com370</t>
   </si>
   <si>
@@ -1905,6 +798,1113 @@
   </si>
   <si>
     <t>venkyrepalle2824@gmail.com599</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com600</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com601</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com602</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com603</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com604</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com605</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com606</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com607</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com608</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com609</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com610</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com611</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com612</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com613</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com614</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com615</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com616</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com617</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com618</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com619</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com620</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com621</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com622</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com623</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com624</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com625</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com626</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com627</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com628</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com629</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com630</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com631</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com632</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com633</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com634</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com635</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com636</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com637</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com638</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com639</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com640</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com641</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com642</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com643</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com644</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com645</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com646</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com647</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com648</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com649</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com650</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com651</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com652</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com653</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com654</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com655</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com656</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com657</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com658</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com659</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com660</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com661</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com662</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com663</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com664</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com665</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com666</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com667</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com668</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com669</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com670</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com671</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com672</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com673</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com674</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com675</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com676</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com677</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com678</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com679</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com680</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com681</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com682</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com683</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com684</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com685</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com686</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com687</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com688</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com689</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com690</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com691</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com692</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com693</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com694</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com695</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com696</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com697</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com698</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com699</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com700</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com701</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com702</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com703</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com704</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com705</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com706</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com707</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com708</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com709</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com710</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com711</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com712</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com713</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com714</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com715</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com716</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com717</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com718</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com719</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com720</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com721</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com722</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com723</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com724</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com725</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com726</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com727</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com728</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com729</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com730</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com731</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com732</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com733</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com734</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com735</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com736</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com737</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com738</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com739</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com740</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com741</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com742</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com743</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com744</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com745</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com746</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com747</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com748</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com749</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com750</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com751</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com752</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com753</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com754</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com755</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com756</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com757</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com758</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com759</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com760</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com761</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com762</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com763</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com764</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com765</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com766</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com767</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com768</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com769</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com770</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com771</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com772</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com773</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com774</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com775</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com776</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com777</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com778</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com779</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com780</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com781</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com782</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com783</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com784</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com785</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com786</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com787</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com788</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com789</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com790</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com791</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com792</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com793</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com794</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com795</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com796</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com797</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com798</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com799</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com800</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com801</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com802</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com803</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com804</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com805</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com806</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com807</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com808</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com809</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com810</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com811</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com812</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com813</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com814</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com815</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com816</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com817</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com818</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com819</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com820</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com821</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com822</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com823</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com824</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com825</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com826</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com827</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com828</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com829</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com830</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com831</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com832</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com833</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com834</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com835</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com836</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com837</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com838</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com839</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com840</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com841</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com842</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com843</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com844</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com845</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com846</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com847</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com848</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com849</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com850</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com851</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com852</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com853</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com854</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com855</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com856</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com857</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com858</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com859</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com860</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com861</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com862</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com863</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com864</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com865</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com866</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com867</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com868</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com869</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com870</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com871</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com872</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com873</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com874</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com875</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com876</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com877</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com878</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com879</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com880</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com881</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com882</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com883</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com884</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com885</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com886</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com887</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com888</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com889</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com890</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com891</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com892</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com893</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com894</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com895</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com896</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com897</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com898</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com899</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com900</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com901</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com902</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com903</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com904</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com905</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com906</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com907</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com908</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com909</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com910</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com911</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com912</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com913</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com914</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com915</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com916</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com917</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com918</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com919</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com920</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com921</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com922</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com923</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com924</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com925</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com926</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com927</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com928</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com929</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com930</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com931</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com932</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com933</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com934</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com935</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com936</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com937</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com938</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com939</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com940</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com941</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com942</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com943</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com944</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com945</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com946</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com947</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com948</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com949</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com950</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com951</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com952</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com953</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com954</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com955</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com956</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com957</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com958</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com959</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com960</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com961</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com962</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com963</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com964</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com965</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com966</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com967</t>
+  </si>
+  <si>
+    <t>venkyrepalle2824@gmail.com968</t>
   </si>
 </sst>
 </file>
@@ -2277,8 +2277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0966AD-23CA-4639-9E3F-0B3647766238}">
   <dimension ref="A1:N600"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A574" workbookViewId="0">
+      <selection activeCell="J581" sqref="J581"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2351,16 +2351,16 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>388</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
@@ -2386,7 +2386,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -2421,7 +2421,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -2456,7 +2456,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -2491,7 +2491,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -2526,7 +2526,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -2561,7 +2561,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -2596,7 +2596,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -2631,7 +2631,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -2666,7 +2666,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -2701,7 +2701,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -2736,7 +2736,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -2771,7 +2771,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
         <v>10</v>
@@ -2806,7 +2806,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
@@ -2841,7 +2841,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -2876,7 +2876,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -2911,7 +2911,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
@@ -2946,7 +2946,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -2981,7 +2981,7 @@
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
@@ -3016,7 +3016,7 @@
         <v>9</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -3051,7 +3051,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -3086,7 +3086,7 @@
         <v>9</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
         <v>10</v>
@@ -3121,7 +3121,7 @@
         <v>9</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -3156,7 +3156,7 @@
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
@@ -3191,7 +3191,7 @@
         <v>9</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
@@ -3226,7 +3226,7 @@
         <v>9</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
@@ -3261,7 +3261,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
@@ -3296,7 +3296,7 @@
         <v>9</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
@@ -3331,7 +3331,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
         <v>10</v>
@@ -3366,7 +3366,7 @@
         <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
@@ -3401,7 +3401,7 @@
         <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
@@ -3436,7 +3436,7 @@
         <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
@@ -3471,7 +3471,7 @@
         <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D34" t="s">
         <v>10</v>
@@ -3506,7 +3506,7 @@
         <v>9</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
@@ -3541,7 +3541,7 @@
         <v>9</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
         <v>10</v>
@@ -3576,7 +3576,7 @@
         <v>9</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
         <v>10</v>
@@ -3611,7 +3611,7 @@
         <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D38" t="s">
         <v>10</v>
@@ -3646,7 +3646,7 @@
         <v>9</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D39" t="s">
         <v>10</v>
@@ -3681,7 +3681,7 @@
         <v>9</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D40" t="s">
         <v>10</v>
@@ -3716,7 +3716,7 @@
         <v>9</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D41" t="s">
         <v>10</v>
@@ -3751,7 +3751,7 @@
         <v>9</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
@@ -3786,7 +3786,7 @@
         <v>9</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D43" t="s">
         <v>10</v>
@@ -3821,7 +3821,7 @@
         <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D44" t="s">
         <v>10</v>
@@ -3856,7 +3856,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
@@ -3891,7 +3891,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D46" t="s">
         <v>10</v>
@@ -3926,7 +3926,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D47" t="s">
         <v>10</v>
@@ -3961,7 +3961,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D48" t="s">
         <v>10</v>
@@ -3996,7 +3996,7 @@
         <v>9</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D49" t="s">
         <v>10</v>
@@ -4031,7 +4031,7 @@
         <v>9</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D50" t="s">
         <v>10</v>
@@ -4066,7 +4066,7 @@
         <v>9</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D51" t="s">
         <v>10</v>
@@ -4101,7 +4101,7 @@
         <v>9</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D52" t="s">
         <v>10</v>
@@ -4136,7 +4136,7 @@
         <v>9</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D53" t="s">
         <v>10</v>
@@ -4171,7 +4171,7 @@
         <v>9</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D54" t="s">
         <v>10</v>
@@ -4206,7 +4206,7 @@
         <v>9</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D55" t="s">
         <v>10</v>
@@ -4241,7 +4241,7 @@
         <v>9</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D56" t="s">
         <v>10</v>
@@ -4276,7 +4276,7 @@
         <v>9</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D57" t="s">
         <v>10</v>
@@ -4311,7 +4311,7 @@
         <v>9</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D58" t="s">
         <v>10</v>
@@ -4346,7 +4346,7 @@
         <v>9</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D59" t="s">
         <v>10</v>
@@ -4381,7 +4381,7 @@
         <v>9</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D60" t="s">
         <v>10</v>
@@ -4416,7 +4416,7 @@
         <v>9</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D61" t="s">
         <v>10</v>
@@ -4451,7 +4451,7 @@
         <v>9</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D62" t="s">
         <v>10</v>
@@ -4486,7 +4486,7 @@
         <v>9</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D63" t="s">
         <v>10</v>
@@ -4521,7 +4521,7 @@
         <v>9</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D64" t="s">
         <v>10</v>
@@ -4556,7 +4556,7 @@
         <v>9</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D65" t="s">
         <v>10</v>
@@ -4591,7 +4591,7 @@
         <v>9</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D66" t="s">
         <v>10</v>
@@ -4626,7 +4626,7 @@
         <v>9</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D67" t="s">
         <v>10</v>
@@ -4661,7 +4661,7 @@
         <v>9</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D68" t="s">
         <v>10</v>
@@ -4696,7 +4696,7 @@
         <v>9</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D69" t="s">
         <v>10</v>
@@ -4731,7 +4731,7 @@
         <v>9</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D70" t="s">
         <v>10</v>
@@ -4766,7 +4766,7 @@
         <v>9</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D71" t="s">
         <v>10</v>
@@ -4801,7 +4801,7 @@
         <v>9</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D72" t="s">
         <v>10</v>
@@ -4836,7 +4836,7 @@
         <v>9</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D73" t="s">
         <v>10</v>
@@ -4871,7 +4871,7 @@
         <v>9</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D74" t="s">
         <v>10</v>
@@ -4906,7 +4906,7 @@
         <v>9</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D75" t="s">
         <v>10</v>
@@ -4941,7 +4941,7 @@
         <v>9</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D76" t="s">
         <v>10</v>
@@ -4976,7 +4976,7 @@
         <v>9</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D77" t="s">
         <v>10</v>
@@ -5011,7 +5011,7 @@
         <v>9</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D78" t="s">
         <v>10</v>
@@ -5046,7 +5046,7 @@
         <v>9</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D79" t="s">
         <v>10</v>
@@ -5081,7 +5081,7 @@
         <v>9</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D80" t="s">
         <v>10</v>
@@ -5116,7 +5116,7 @@
         <v>9</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D81" t="s">
         <v>10</v>
@@ -5151,7 +5151,7 @@
         <v>9</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D82" t="s">
         <v>10</v>
@@ -5186,7 +5186,7 @@
         <v>9</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D83" t="s">
         <v>10</v>
@@ -5221,7 +5221,7 @@
         <v>9</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D84" t="s">
         <v>10</v>
@@ -5256,7 +5256,7 @@
         <v>9</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D85" t="s">
         <v>10</v>
@@ -5291,7 +5291,7 @@
         <v>9</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D86" t="s">
         <v>10</v>
@@ -5326,7 +5326,7 @@
         <v>9</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D87" t="s">
         <v>10</v>
@@ -5361,7 +5361,7 @@
         <v>9</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D88" t="s">
         <v>10</v>
@@ -5396,7 +5396,7 @@
         <v>9</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D89" t="s">
         <v>10</v>
@@ -5431,7 +5431,7 @@
         <v>9</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D90" t="s">
         <v>10</v>
@@ -5466,7 +5466,7 @@
         <v>9</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D91" t="s">
         <v>10</v>
@@ -5501,7 +5501,7 @@
         <v>9</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D92" t="s">
         <v>10</v>
@@ -5536,7 +5536,7 @@
         <v>9</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D93" t="s">
         <v>10</v>
@@ -5571,7 +5571,7 @@
         <v>9</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D94" t="s">
         <v>10</v>
@@ -5606,7 +5606,7 @@
         <v>9</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D95" t="s">
         <v>10</v>
@@ -5641,7 +5641,7 @@
         <v>9</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D96" t="s">
         <v>10</v>
@@ -5676,7 +5676,7 @@
         <v>9</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D97" t="s">
         <v>10</v>
@@ -5711,7 +5711,7 @@
         <v>9</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D98" t="s">
         <v>10</v>
@@ -5746,7 +5746,7 @@
         <v>9</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D99" t="s">
         <v>10</v>
@@ -5781,7 +5781,7 @@
         <v>9</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D100" t="s">
         <v>10</v>
@@ -5816,7 +5816,7 @@
         <v>9</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D101" t="s">
         <v>10</v>
@@ -5851,7 +5851,7 @@
         <v>9</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D102" t="s">
         <v>10</v>
@@ -5886,7 +5886,7 @@
         <v>9</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D103" t="s">
         <v>10</v>
@@ -5921,7 +5921,7 @@
         <v>9</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D104" t="s">
         <v>10</v>
@@ -5956,7 +5956,7 @@
         <v>9</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D105" t="s">
         <v>10</v>
@@ -5991,7 +5991,7 @@
         <v>9</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D106" t="s">
         <v>10</v>
@@ -6026,7 +6026,7 @@
         <v>9</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D107" t="s">
         <v>10</v>
@@ -6061,7 +6061,7 @@
         <v>9</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D108" t="s">
         <v>10</v>
@@ -6096,7 +6096,7 @@
         <v>9</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D109" t="s">
         <v>10</v>
@@ -6131,7 +6131,7 @@
         <v>9</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D110" t="s">
         <v>10</v>
@@ -6166,7 +6166,7 @@
         <v>9</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D111" t="s">
         <v>10</v>
@@ -6201,7 +6201,7 @@
         <v>9</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D112" t="s">
         <v>10</v>
@@ -6236,7 +6236,7 @@
         <v>9</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D113" t="s">
         <v>10</v>
@@ -6271,7 +6271,7 @@
         <v>9</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D114" t="s">
         <v>10</v>
@@ -6306,7 +6306,7 @@
         <v>9</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D115" t="s">
         <v>10</v>
@@ -6341,7 +6341,7 @@
         <v>9</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D116" t="s">
         <v>10</v>
@@ -6376,7 +6376,7 @@
         <v>9</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D117" t="s">
         <v>10</v>
@@ -6411,7 +6411,7 @@
         <v>9</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D118" t="s">
         <v>10</v>
@@ -6446,7 +6446,7 @@
         <v>9</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D119" t="s">
         <v>10</v>
@@ -6481,7 +6481,7 @@
         <v>9</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D120" t="s">
         <v>10</v>
@@ -6516,7 +6516,7 @@
         <v>9</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D121" t="s">
         <v>10</v>
@@ -6551,7 +6551,7 @@
         <v>9</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D122" t="s">
         <v>10</v>
@@ -6586,7 +6586,7 @@
         <v>9</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D123" t="s">
         <v>10</v>
@@ -6621,7 +6621,7 @@
         <v>9</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D124" t="s">
         <v>10</v>
@@ -6656,7 +6656,7 @@
         <v>9</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D125" t="s">
         <v>10</v>
@@ -6691,7 +6691,7 @@
         <v>9</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D126" t="s">
         <v>10</v>
@@ -6726,7 +6726,7 @@
         <v>9</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D127" t="s">
         <v>10</v>
@@ -6761,7 +6761,7 @@
         <v>9</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D128" t="s">
         <v>10</v>
@@ -6796,7 +6796,7 @@
         <v>9</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D129" t="s">
         <v>10</v>
@@ -6831,7 +6831,7 @@
         <v>9</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D130" t="s">
         <v>10</v>
@@ -6866,7 +6866,7 @@
         <v>9</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D131" t="s">
         <v>10</v>
@@ -6901,7 +6901,7 @@
         <v>9</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D132" t="s">
         <v>10</v>
@@ -6936,7 +6936,7 @@
         <v>9</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D133" t="s">
         <v>10</v>
@@ -6971,7 +6971,7 @@
         <v>9</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D134" t="s">
         <v>10</v>
@@ -7006,7 +7006,7 @@
         <v>9</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D135" t="s">
         <v>10</v>
@@ -7041,7 +7041,7 @@
         <v>9</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D136" t="s">
         <v>10</v>
@@ -7076,7 +7076,7 @@
         <v>9</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D137" t="s">
         <v>10</v>
@@ -7111,7 +7111,7 @@
         <v>9</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D138" t="s">
         <v>10</v>
@@ -7146,7 +7146,7 @@
         <v>9</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D139" t="s">
         <v>10</v>
@@ -7181,7 +7181,7 @@
         <v>9</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D140" t="s">
         <v>10</v>
@@ -7216,7 +7216,7 @@
         <v>9</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D141" t="s">
         <v>10</v>
@@ -7251,7 +7251,7 @@
         <v>9</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D142" t="s">
         <v>10</v>
@@ -7286,7 +7286,7 @@
         <v>9</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D143" t="s">
         <v>10</v>
@@ -7321,7 +7321,7 @@
         <v>9</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D144" t="s">
         <v>10</v>
@@ -7356,7 +7356,7 @@
         <v>9</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D145" t="s">
         <v>10</v>
@@ -7391,7 +7391,7 @@
         <v>9</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D146" t="s">
         <v>10</v>
@@ -7426,7 +7426,7 @@
         <v>9</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D147" t="s">
         <v>10</v>
@@ -7461,7 +7461,7 @@
         <v>9</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D148" t="s">
         <v>10</v>
@@ -7496,7 +7496,7 @@
         <v>9</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D149" t="s">
         <v>10</v>
@@ -7531,7 +7531,7 @@
         <v>9</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D150" t="s">
         <v>10</v>
@@ -7566,7 +7566,7 @@
         <v>9</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D151" t="s">
         <v>10</v>
@@ -7601,7 +7601,7 @@
         <v>9</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D152" t="s">
         <v>10</v>
@@ -7636,7 +7636,7 @@
         <v>9</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D153" t="s">
         <v>10</v>
@@ -7671,7 +7671,7 @@
         <v>9</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D154" t="s">
         <v>10</v>
@@ -7706,7 +7706,7 @@
         <v>9</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D155" t="s">
         <v>10</v>
@@ -7741,7 +7741,7 @@
         <v>9</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D156" t="s">
         <v>10</v>
@@ -7776,7 +7776,7 @@
         <v>9</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D157" t="s">
         <v>10</v>
@@ -7811,7 +7811,7 @@
         <v>9</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D158" t="s">
         <v>10</v>
@@ -7846,7 +7846,7 @@
         <v>9</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D159" t="s">
         <v>10</v>
@@ -7881,7 +7881,7 @@
         <v>9</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D160" t="s">
         <v>10</v>
@@ -7916,7 +7916,7 @@
         <v>9</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D161" t="s">
         <v>10</v>
@@ -7951,7 +7951,7 @@
         <v>9</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D162" t="s">
         <v>10</v>
@@ -7986,7 +7986,7 @@
         <v>9</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D163" t="s">
         <v>10</v>
@@ -8021,7 +8021,7 @@
         <v>9</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D164" t="s">
         <v>10</v>
@@ -8056,7 +8056,7 @@
         <v>9</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D165" t="s">
         <v>10</v>
@@ -8091,7 +8091,7 @@
         <v>9</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D166" t="s">
         <v>10</v>
@@ -8126,7 +8126,7 @@
         <v>9</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D167" t="s">
         <v>10</v>
@@ -8161,7 +8161,7 @@
         <v>9</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D168" t="s">
         <v>10</v>
@@ -8196,7 +8196,7 @@
         <v>9</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D169" t="s">
         <v>10</v>
@@ -8231,7 +8231,7 @@
         <v>9</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D170" t="s">
         <v>10</v>
@@ -8266,7 +8266,7 @@
         <v>9</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D171" t="s">
         <v>10</v>
@@ -8301,7 +8301,7 @@
         <v>9</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D172" t="s">
         <v>10</v>
@@ -8336,7 +8336,7 @@
         <v>9</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D173" t="s">
         <v>10</v>
@@ -8371,7 +8371,7 @@
         <v>9</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D174" t="s">
         <v>10</v>
@@ -8406,7 +8406,7 @@
         <v>9</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D175" t="s">
         <v>10</v>
@@ -8441,7 +8441,7 @@
         <v>9</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D176" t="s">
         <v>10</v>
@@ -8476,7 +8476,7 @@
         <v>9</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D177" t="s">
         <v>10</v>
@@ -8511,7 +8511,7 @@
         <v>9</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D178" t="s">
         <v>10</v>
@@ -8546,7 +8546,7 @@
         <v>9</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D179" t="s">
         <v>10</v>
@@ -8581,7 +8581,7 @@
         <v>9</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D180" t="s">
         <v>10</v>
@@ -8616,7 +8616,7 @@
         <v>9</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D181" t="s">
         <v>10</v>
@@ -8651,7 +8651,7 @@
         <v>9</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D182" t="s">
         <v>10</v>
@@ -8686,7 +8686,7 @@
         <v>9</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D183" t="s">
         <v>10</v>
@@ -8721,7 +8721,7 @@
         <v>9</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D184" t="s">
         <v>10</v>
@@ -8756,7 +8756,7 @@
         <v>9</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D185" t="s">
         <v>10</v>
@@ -8791,7 +8791,7 @@
         <v>9</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D186" t="s">
         <v>10</v>
@@ -8826,7 +8826,7 @@
         <v>9</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D187" t="s">
         <v>10</v>
@@ -8861,7 +8861,7 @@
         <v>9</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D188" t="s">
         <v>10</v>
@@ -8896,7 +8896,7 @@
         <v>9</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D189" t="s">
         <v>10</v>
@@ -8931,7 +8931,7 @@
         <v>9</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D190" t="s">
         <v>10</v>
@@ -8966,7 +8966,7 @@
         <v>9</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D191" t="s">
         <v>10</v>
@@ -9001,7 +9001,7 @@
         <v>9</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D192" t="s">
         <v>10</v>
@@ -9036,7 +9036,7 @@
         <v>9</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D193" t="s">
         <v>10</v>
@@ -9071,7 +9071,7 @@
         <v>9</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D194" t="s">
         <v>10</v>
@@ -9106,7 +9106,7 @@
         <v>9</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D195" t="s">
         <v>10</v>
@@ -9141,7 +9141,7 @@
         <v>9</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D196" t="s">
         <v>10</v>
@@ -9176,7 +9176,7 @@
         <v>9</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D197" t="s">
         <v>10</v>
@@ -9211,7 +9211,7 @@
         <v>9</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D198" t="s">
         <v>10</v>
@@ -9246,7 +9246,7 @@
         <v>9</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D199" t="s">
         <v>10</v>
@@ -9281,7 +9281,7 @@
         <v>9</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D200" t="s">
         <v>10</v>
@@ -9316,7 +9316,7 @@
         <v>9</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D201" t="s">
         <v>10</v>
@@ -9351,7 +9351,7 @@
         <v>9</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D202" t="s">
         <v>10</v>
@@ -9386,7 +9386,7 @@
         <v>9</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D203" t="s">
         <v>10</v>
@@ -9421,7 +9421,7 @@
         <v>9</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D204" t="s">
         <v>10</v>
@@ -9456,7 +9456,7 @@
         <v>9</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D205" t="s">
         <v>10</v>
@@ -9491,7 +9491,7 @@
         <v>9</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D206" t="s">
         <v>10</v>
@@ -9526,7 +9526,7 @@
         <v>9</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D207" t="s">
         <v>10</v>
@@ -9561,7 +9561,7 @@
         <v>9</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D208" t="s">
         <v>10</v>
@@ -9596,7 +9596,7 @@
         <v>9</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D209" t="s">
         <v>10</v>
@@ -9631,7 +9631,7 @@
         <v>9</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D210" t="s">
         <v>10</v>
@@ -9666,7 +9666,7 @@
         <v>9</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D211" t="s">
         <v>10</v>
@@ -9701,7 +9701,7 @@
         <v>9</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D212" t="s">
         <v>10</v>
@@ -9736,7 +9736,7 @@
         <v>9</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D213" t="s">
         <v>10</v>
@@ -9771,7 +9771,7 @@
         <v>9</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D214" t="s">
         <v>10</v>
@@ -9806,7 +9806,7 @@
         <v>9</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D215" t="s">
         <v>10</v>
@@ -9841,7 +9841,7 @@
         <v>9</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D216" t="s">
         <v>10</v>
@@ -9876,7 +9876,7 @@
         <v>9</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D217" t="s">
         <v>10</v>
@@ -9911,7 +9911,7 @@
         <v>9</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D218" t="s">
         <v>10</v>
@@ -9946,7 +9946,7 @@
         <v>9</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D219" t="s">
         <v>10</v>
@@ -9981,7 +9981,7 @@
         <v>9</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D220" t="s">
         <v>10</v>
@@ -10016,7 +10016,7 @@
         <v>9</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D221" t="s">
         <v>10</v>
@@ -10051,7 +10051,7 @@
         <v>9</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D222" t="s">
         <v>10</v>
@@ -10086,7 +10086,7 @@
         <v>9</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D223" t="s">
         <v>10</v>
@@ -10121,7 +10121,7 @@
         <v>9</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D224" t="s">
         <v>10</v>
@@ -10156,7 +10156,7 @@
         <v>9</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D225" t="s">
         <v>10</v>
@@ -10191,7 +10191,7 @@
         <v>9</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D226" t="s">
         <v>10</v>
@@ -10226,7 +10226,7 @@
         <v>9</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D227" t="s">
         <v>10</v>
@@ -10261,7 +10261,7 @@
         <v>9</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D228" t="s">
         <v>10</v>
@@ -10296,7 +10296,7 @@
         <v>9</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D229" t="s">
         <v>10</v>
@@ -10331,7 +10331,7 @@
         <v>9</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D230" t="s">
         <v>10</v>
@@ -10366,7 +10366,7 @@
         <v>9</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D231" t="s">
         <v>10</v>
@@ -10401,7 +10401,7 @@
         <v>9</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D232" t="s">
         <v>10</v>
@@ -10436,7 +10436,7 @@
         <v>9</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D233" t="s">
         <v>10</v>
@@ -10471,7 +10471,7 @@
         <v>9</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D234" t="s">
         <v>10</v>
@@ -10506,7 +10506,7 @@
         <v>9</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D235" t="s">
         <v>10</v>
@@ -10541,7 +10541,7 @@
         <v>9</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D236" t="s">
         <v>10</v>
@@ -10576,7 +10576,7 @@
         <v>9</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D237" t="s">
         <v>10</v>
@@ -10611,7 +10611,7 @@
         <v>9</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D238" t="s">
         <v>10</v>
@@ -10646,7 +10646,7 @@
         <v>9</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D239" t="s">
         <v>10</v>
@@ -10681,7 +10681,7 @@
         <v>9</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D240" t="s">
         <v>10</v>
@@ -10716,7 +10716,7 @@
         <v>9</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D241" t="s">
         <v>10</v>
@@ -10751,7 +10751,7 @@
         <v>9</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D242" t="s">
         <v>10</v>
@@ -10786,7 +10786,7 @@
         <v>9</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D243" t="s">
         <v>10</v>
@@ -10821,7 +10821,7 @@
         <v>9</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D244" t="s">
         <v>10</v>
@@ -10856,7 +10856,7 @@
         <v>9</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D245" t="s">
         <v>10</v>
@@ -10891,7 +10891,7 @@
         <v>9</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D246" t="s">
         <v>10</v>
@@ -10926,7 +10926,7 @@
         <v>9</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D247" t="s">
         <v>10</v>
@@ -10961,7 +10961,7 @@
         <v>9</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D248" t="s">
         <v>10</v>
@@ -10996,7 +10996,7 @@
         <v>9</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D249" t="s">
         <v>10</v>
@@ -11031,7 +11031,7 @@
         <v>9</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D250" t="s">
         <v>10</v>
@@ -11066,7 +11066,7 @@
         <v>9</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D251" t="s">
         <v>10</v>
@@ -11101,7 +11101,7 @@
         <v>9</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D252" t="s">
         <v>10</v>
@@ -11136,7 +11136,7 @@
         <v>9</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D253" t="s">
         <v>10</v>
@@ -11171,7 +11171,7 @@
         <v>9</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D254" t="s">
         <v>10</v>
@@ -11206,7 +11206,7 @@
         <v>9</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D255" t="s">
         <v>10</v>
@@ -11241,7 +11241,7 @@
         <v>9</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D256" t="s">
         <v>10</v>
@@ -11276,7 +11276,7 @@
         <v>9</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D257" t="s">
         <v>10</v>
@@ -11311,7 +11311,7 @@
         <v>9</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D258" t="s">
         <v>10</v>
@@ -11346,7 +11346,7 @@
         <v>9</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D259" t="s">
         <v>10</v>
@@ -11381,7 +11381,7 @@
         <v>9</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D260" t="s">
         <v>10</v>
@@ -11416,7 +11416,7 @@
         <v>9</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D261" t="s">
         <v>10</v>
@@ -11451,7 +11451,7 @@
         <v>9</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D262" t="s">
         <v>10</v>
@@ -11486,7 +11486,7 @@
         <v>9</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D263" t="s">
         <v>10</v>
@@ -11521,7 +11521,7 @@
         <v>9</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D264" t="s">
         <v>10</v>
@@ -11556,7 +11556,7 @@
         <v>9</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D265" t="s">
         <v>10</v>
@@ -11591,7 +11591,7 @@
         <v>9</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D266" t="s">
         <v>10</v>
@@ -11626,7 +11626,7 @@
         <v>9</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D267" t="s">
         <v>10</v>
@@ -11661,7 +11661,7 @@
         <v>9</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D268" t="s">
         <v>10</v>
@@ -11696,7 +11696,7 @@
         <v>9</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D269" t="s">
         <v>10</v>
@@ -11731,7 +11731,7 @@
         <v>9</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D270" t="s">
         <v>10</v>
@@ -11766,7 +11766,7 @@
         <v>9</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D271" t="s">
         <v>10</v>
@@ -11801,7 +11801,7 @@
         <v>9</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D272" t="s">
         <v>10</v>
@@ -11836,7 +11836,7 @@
         <v>9</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D273" t="s">
         <v>10</v>
@@ -11871,7 +11871,7 @@
         <v>9</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D274" t="s">
         <v>10</v>
@@ -11906,7 +11906,7 @@
         <v>9</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D275" t="s">
         <v>10</v>
@@ -11941,7 +11941,7 @@
         <v>9</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D276" t="s">
         <v>10</v>
@@ -11976,7 +11976,7 @@
         <v>9</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D277" t="s">
         <v>10</v>
@@ -12011,7 +12011,7 @@
         <v>9</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D278" t="s">
         <v>10</v>
@@ -12046,7 +12046,7 @@
         <v>9</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D279" t="s">
         <v>10</v>
@@ -12081,7 +12081,7 @@
         <v>9</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D280" t="s">
         <v>10</v>
@@ -12116,7 +12116,7 @@
         <v>9</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D281" t="s">
         <v>10</v>
@@ -12151,7 +12151,7 @@
         <v>9</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D282" t="s">
         <v>10</v>
@@ -12186,7 +12186,7 @@
         <v>9</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D283" t="s">
         <v>10</v>
@@ -12221,7 +12221,7 @@
         <v>9</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D284" t="s">
         <v>10</v>
@@ -12256,7 +12256,7 @@
         <v>9</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D285" t="s">
         <v>10</v>
@@ -12291,7 +12291,7 @@
         <v>9</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D286" t="s">
         <v>10</v>
@@ -12326,7 +12326,7 @@
         <v>9</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D287" t="s">
         <v>10</v>
@@ -12361,7 +12361,7 @@
         <v>9</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D288" t="s">
         <v>10</v>
@@ -12396,7 +12396,7 @@
         <v>9</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D289" t="s">
         <v>10</v>
@@ -12431,7 +12431,7 @@
         <v>9</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D290" t="s">
         <v>10</v>
@@ -12466,7 +12466,7 @@
         <v>9</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D291" t="s">
         <v>10</v>
@@ -12501,7 +12501,7 @@
         <v>9</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D292" t="s">
         <v>10</v>
@@ -12536,7 +12536,7 @@
         <v>9</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D293" t="s">
         <v>10</v>
@@ -12571,7 +12571,7 @@
         <v>9</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D294" t="s">
         <v>10</v>
@@ -12606,7 +12606,7 @@
         <v>9</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D295" t="s">
         <v>10</v>
@@ -12641,7 +12641,7 @@
         <v>9</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D296" t="s">
         <v>10</v>
@@ -12676,7 +12676,7 @@
         <v>9</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D297" t="s">
         <v>10</v>
@@ -12711,7 +12711,7 @@
         <v>9</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D298" t="s">
         <v>10</v>
@@ -12746,7 +12746,7 @@
         <v>9</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D299" t="s">
         <v>10</v>
@@ -12781,7 +12781,7 @@
         <v>9</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D300" t="s">
         <v>10</v>
@@ -12816,7 +12816,7 @@
         <v>9</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D301" t="s">
         <v>10</v>
@@ -12851,7 +12851,7 @@
         <v>9</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D302" t="s">
         <v>10</v>
@@ -12886,7 +12886,7 @@
         <v>9</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D303" t="s">
         <v>10</v>
@@ -12921,7 +12921,7 @@
         <v>9</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D304" t="s">
         <v>10</v>
@@ -12956,7 +12956,7 @@
         <v>9</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D305" t="s">
         <v>10</v>
@@ -12991,7 +12991,7 @@
         <v>9</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D306" t="s">
         <v>10</v>
@@ -13026,7 +13026,7 @@
         <v>9</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D307" t="s">
         <v>10</v>
@@ -13061,7 +13061,7 @@
         <v>9</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D308" t="s">
         <v>10</v>
@@ -13096,7 +13096,7 @@
         <v>9</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D309" t="s">
         <v>10</v>
@@ -13131,7 +13131,7 @@
         <v>9</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D310" t="s">
         <v>10</v>
@@ -13166,7 +13166,7 @@
         <v>9</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D311" t="s">
         <v>10</v>
@@ -13201,7 +13201,7 @@
         <v>9</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D312" t="s">
         <v>10</v>
@@ -13236,7 +13236,7 @@
         <v>9</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D313" t="s">
         <v>10</v>
@@ -13271,7 +13271,7 @@
         <v>9</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D314" t="s">
         <v>10</v>
@@ -13306,7 +13306,7 @@
         <v>9</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D315" t="s">
         <v>10</v>
@@ -13341,7 +13341,7 @@
         <v>9</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D316" t="s">
         <v>10</v>
@@ -13376,7 +13376,7 @@
         <v>9</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D317" t="s">
         <v>10</v>
@@ -13411,7 +13411,7 @@
         <v>9</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D318" t="s">
         <v>10</v>
@@ -13446,7 +13446,7 @@
         <v>9</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D319" t="s">
         <v>10</v>
@@ -13481,7 +13481,7 @@
         <v>9</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D320" t="s">
         <v>10</v>
@@ -13516,7 +13516,7 @@
         <v>9</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D321" t="s">
         <v>10</v>
@@ -13551,7 +13551,7 @@
         <v>9</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D322" t="s">
         <v>10</v>
@@ -13586,7 +13586,7 @@
         <v>9</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D323" t="s">
         <v>10</v>
@@ -13621,7 +13621,7 @@
         <v>9</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D324" t="s">
         <v>10</v>
@@ -13656,7 +13656,7 @@
         <v>9</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D325" t="s">
         <v>10</v>
@@ -13691,7 +13691,7 @@
         <v>9</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D326" t="s">
         <v>10</v>
@@ -13726,7 +13726,7 @@
         <v>9</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D327" t="s">
         <v>10</v>
@@ -13761,7 +13761,7 @@
         <v>9</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D328" t="s">
         <v>10</v>
@@ -13796,7 +13796,7 @@
         <v>9</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D329" t="s">
         <v>10</v>
@@ -13831,7 +13831,7 @@
         <v>9</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D330" t="s">
         <v>10</v>
@@ -13866,7 +13866,7 @@
         <v>9</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D331" t="s">
         <v>10</v>
@@ -13901,7 +13901,7 @@
         <v>9</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D332" t="s">
         <v>10</v>
@@ -13936,7 +13936,7 @@
         <v>9</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D333" t="s">
         <v>10</v>
@@ -13971,7 +13971,7 @@
         <v>9</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D334" t="s">
         <v>10</v>
@@ -14006,7 +14006,7 @@
         <v>9</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D335" t="s">
         <v>10</v>
@@ -14041,7 +14041,7 @@
         <v>9</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D336" t="s">
         <v>10</v>
@@ -14076,7 +14076,7 @@
         <v>9</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D337" t="s">
         <v>10</v>
@@ -14111,7 +14111,7 @@
         <v>9</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D338" t="s">
         <v>10</v>
@@ -14146,7 +14146,7 @@
         <v>9</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D339" t="s">
         <v>10</v>
@@ -14181,7 +14181,7 @@
         <v>9</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D340" t="s">
         <v>10</v>
@@ -14216,7 +14216,7 @@
         <v>9</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D341" t="s">
         <v>10</v>
@@ -14251,7 +14251,7 @@
         <v>9</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D342" t="s">
         <v>10</v>
@@ -14286,7 +14286,7 @@
         <v>9</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D343" t="s">
         <v>10</v>
@@ -14321,7 +14321,7 @@
         <v>9</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D344" t="s">
         <v>10</v>
@@ -14356,7 +14356,7 @@
         <v>9</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D345" t="s">
         <v>10</v>
@@ -14391,7 +14391,7 @@
         <v>9</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D346" t="s">
         <v>10</v>
@@ -14426,7 +14426,7 @@
         <v>9</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D347" t="s">
         <v>10</v>
@@ -14461,7 +14461,7 @@
         <v>9</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D348" t="s">
         <v>10</v>
@@ -14496,7 +14496,7 @@
         <v>9</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D349" t="s">
         <v>10</v>
@@ -14531,7 +14531,7 @@
         <v>9</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D350" t="s">
         <v>10</v>
@@ -14566,7 +14566,7 @@
         <v>9</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D351" t="s">
         <v>10</v>
@@ -14601,7 +14601,7 @@
         <v>9</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D352" t="s">
         <v>10</v>
@@ -14636,7 +14636,7 @@
         <v>9</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D353" t="s">
         <v>10</v>
@@ -14671,7 +14671,7 @@
         <v>9</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D354" t="s">
         <v>10</v>
@@ -14706,7 +14706,7 @@
         <v>9</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D355" t="s">
         <v>10</v>
@@ -14741,7 +14741,7 @@
         <v>9</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D356" t="s">
         <v>10</v>
@@ -14776,7 +14776,7 @@
         <v>9</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D357" t="s">
         <v>10</v>
@@ -14811,7 +14811,7 @@
         <v>9</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D358" t="s">
         <v>10</v>
@@ -14846,7 +14846,7 @@
         <v>9</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D359" t="s">
         <v>10</v>
@@ -14881,7 +14881,7 @@
         <v>9</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D360" t="s">
         <v>10</v>
@@ -14916,7 +14916,7 @@
         <v>9</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D361" t="s">
         <v>10</v>
@@ -14951,7 +14951,7 @@
         <v>9</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D362" t="s">
         <v>10</v>
@@ -14986,7 +14986,7 @@
         <v>9</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D363" t="s">
         <v>10</v>
@@ -15021,7 +15021,7 @@
         <v>9</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D364" t="s">
         <v>10</v>
@@ -15056,7 +15056,7 @@
         <v>9</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D365" t="s">
         <v>10</v>
@@ -15091,7 +15091,7 @@
         <v>9</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D366" t="s">
         <v>10</v>
@@ -15126,7 +15126,7 @@
         <v>9</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D367" t="s">
         <v>10</v>
@@ -22847,243 +22847,10 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{7A0C5357-20F2-499E-9DC4-59F5A3A8C539}"/>
-    <hyperlink ref="C3:C367" r:id="rId2" display="venkyrepalle2824@gmail.com1" xr:uid="{5EFA850A-3A0F-48B4-B5F5-B2E703C4C84B}"/>
-    <hyperlink ref="C368" r:id="rId3" display="venkyrepalle2824@gmail.com1" xr:uid="{7225DF91-A4D9-48D3-AFDA-9E04CB67FB0F}"/>
-    <hyperlink ref="C369" r:id="rId4" display="venkyrepalle2824@gmail.com1" xr:uid="{2089D3F8-D181-4384-B35D-616C7C45D31E}"/>
-    <hyperlink ref="C370" r:id="rId5" display="venkyrepalle2824@gmail.com1" xr:uid="{1D56DA16-AC07-4508-BF8D-A04F1BB64A84}"/>
-    <hyperlink ref="C371" r:id="rId6" display="venkyrepalle2824@gmail.com1" xr:uid="{3C4BF8B8-C4F2-4C48-B95D-E4B2B8EFD551}"/>
-    <hyperlink ref="C372" r:id="rId7" display="venkyrepalle2824@gmail.com1" xr:uid="{9E904081-C104-4E16-9087-7656FD3C083B}"/>
-    <hyperlink ref="C373" r:id="rId8" display="venkyrepalle2824@gmail.com1" xr:uid="{AB812C54-9964-49FC-ACD5-619202E3DED3}"/>
-    <hyperlink ref="C374" r:id="rId9" display="venkyrepalle2824@gmail.com1" xr:uid="{FEAB6FD1-E01F-4054-A2C3-DD74DC62C31B}"/>
-    <hyperlink ref="C375" r:id="rId10" display="venkyrepalle2824@gmail.com1" xr:uid="{BAAD209F-E3EF-47AA-B799-F7B9552568F9}"/>
-    <hyperlink ref="C376" r:id="rId11" display="venkyrepalle2824@gmail.com1" xr:uid="{B1CCBA53-F34C-45C7-AE5E-1842C79DA990}"/>
-    <hyperlink ref="C377" r:id="rId12" display="venkyrepalle2824@gmail.com1" xr:uid="{4000F994-7EE0-4DDD-A6FF-F2476BA0FA13}"/>
-    <hyperlink ref="C378" r:id="rId13" display="venkyrepalle2824@gmail.com1" xr:uid="{D9A15C9D-BDAF-49D0-992B-95CDEC96FCDB}"/>
-    <hyperlink ref="C379" r:id="rId14" display="venkyrepalle2824@gmail.com1" xr:uid="{DD7FEFFC-126C-470F-9638-A348B64FD9A0}"/>
-    <hyperlink ref="C380" r:id="rId15" display="venkyrepalle2824@gmail.com1" xr:uid="{E59CA80C-CEB6-48D9-BB9B-21665EF58204}"/>
-    <hyperlink ref="C381" r:id="rId16" display="venkyrepalle2824@gmail.com1" xr:uid="{EBF3814B-DCD1-4570-B2EB-5E598871ED86}"/>
-    <hyperlink ref="C382" r:id="rId17" display="venkyrepalle2824@gmail.com1" xr:uid="{F460A7C0-79CD-40DC-9882-E6EF0FE297A7}"/>
-    <hyperlink ref="C383" r:id="rId18" display="venkyrepalle2824@gmail.com1" xr:uid="{5BAD4E34-596B-4891-A947-04A4F4EC7235}"/>
-    <hyperlink ref="C384" r:id="rId19" display="venkyrepalle2824@gmail.com1" xr:uid="{265B9156-A7DA-4E97-A807-CC938238641F}"/>
-    <hyperlink ref="C385" r:id="rId20" display="venkyrepalle2824@gmail.com1" xr:uid="{7ADBCFB6-3FA9-49D8-B807-47E34DA65ADC}"/>
-    <hyperlink ref="C386" r:id="rId21" display="venkyrepalle2824@gmail.com1" xr:uid="{A7214BA7-5B06-449F-9D93-A8386DCE5F52}"/>
-    <hyperlink ref="C387" r:id="rId22" display="venkyrepalle2824@gmail.com1" xr:uid="{36F1F01E-A448-4640-88C4-C7B1A8073178}"/>
-    <hyperlink ref="C388" r:id="rId23" display="venkyrepalle2824@gmail.com1" xr:uid="{B7320AC9-A7B6-4167-99D7-234B978E5420}"/>
-    <hyperlink ref="C389" r:id="rId24" display="venkyrepalle2824@gmail.com1" xr:uid="{A994DF4C-C2AA-4A9E-8F53-14182EB652D4}"/>
-    <hyperlink ref="C390" r:id="rId25" display="venkyrepalle2824@gmail.com1" xr:uid="{928F06B5-D0E4-47B1-A313-F9B7233BDB91}"/>
-    <hyperlink ref="C391" r:id="rId26" display="venkyrepalle2824@gmail.com1" xr:uid="{83E774D3-590A-4D3A-9A43-74B88E155D56}"/>
-    <hyperlink ref="C392" r:id="rId27" display="venkyrepalle2824@gmail.com1" xr:uid="{CB110CE0-7599-4BB1-999D-E2F97D4AED18}"/>
-    <hyperlink ref="C393" r:id="rId28" display="venkyrepalle2824@gmail.com1" xr:uid="{B3B50CCB-B045-4E26-941F-DB1CD28D6033}"/>
-    <hyperlink ref="C394" r:id="rId29" display="venkyrepalle2824@gmail.com1" xr:uid="{8E8E91BD-DAE9-47C8-B455-CB086C2B5A54}"/>
-    <hyperlink ref="C395" r:id="rId30" display="venkyrepalle2824@gmail.com1" xr:uid="{76371546-933F-4255-B496-FC1494E979A7}"/>
-    <hyperlink ref="C396" r:id="rId31" display="venkyrepalle2824@gmail.com1" xr:uid="{4A41C4F7-6574-4B4F-8E4E-EDC4C7940EB2}"/>
-    <hyperlink ref="C397" r:id="rId32" display="venkyrepalle2824@gmail.com1" xr:uid="{EA0E210F-2260-4B2B-8A98-1050D484B86C}"/>
-    <hyperlink ref="C398" r:id="rId33" display="venkyrepalle2824@gmail.com1" xr:uid="{953088C1-7FD4-4930-9A2B-31A7E4270228}"/>
-    <hyperlink ref="C399" r:id="rId34" display="venkyrepalle2824@gmail.com1" xr:uid="{278BAE2D-50E0-49F2-A179-CDFC3A5857FE}"/>
-    <hyperlink ref="C400" r:id="rId35" display="venkyrepalle2824@gmail.com1" xr:uid="{BA565949-1A45-4AAD-AAE8-FDA8ACB4ADC7}"/>
-    <hyperlink ref="C401" r:id="rId36" display="venkyrepalle2824@gmail.com1" xr:uid="{A8031413-0F5E-4338-8899-CEF42F52E981}"/>
-    <hyperlink ref="C402" r:id="rId37" display="venkyrepalle2824@gmail.com1" xr:uid="{879C9755-576E-4E12-A6F0-98626FB1B0BE}"/>
-    <hyperlink ref="C403" r:id="rId38" display="venkyrepalle2824@gmail.com1" xr:uid="{13807DE6-986F-4D13-B040-659FB6A8E5D5}"/>
-    <hyperlink ref="C404" r:id="rId39" display="venkyrepalle2824@gmail.com1" xr:uid="{72F9FDCE-42C8-485D-A6B6-35AA6A67BE0C}"/>
-    <hyperlink ref="C405" r:id="rId40" display="venkyrepalle2824@gmail.com1" xr:uid="{33D4269A-937F-426A-897B-C76B3F5EB498}"/>
-    <hyperlink ref="C406" r:id="rId41" display="venkyrepalle2824@gmail.com1" xr:uid="{475E5CFF-49D5-4531-B63D-C1CAC5A57A84}"/>
-    <hyperlink ref="C407" r:id="rId42" display="venkyrepalle2824@gmail.com1" xr:uid="{19CD2539-139E-4A99-B5FB-5672EA3B27E4}"/>
-    <hyperlink ref="C408" r:id="rId43" display="venkyrepalle2824@gmail.com1" xr:uid="{2871F1C3-0C48-4698-8710-67A2345FAB8B}"/>
-    <hyperlink ref="C409" r:id="rId44" display="venkyrepalle2824@gmail.com1" xr:uid="{FF6DF980-D2F6-468A-A367-347127ED8445}"/>
-    <hyperlink ref="C410" r:id="rId45" display="venkyrepalle2824@gmail.com1" xr:uid="{3CCB4644-55F5-4FED-985E-4FB7C2E5CEFC}"/>
-    <hyperlink ref="C411" r:id="rId46" display="venkyrepalle2824@gmail.com1" xr:uid="{C8BF0193-496D-4401-A2B1-0C974F724A28}"/>
-    <hyperlink ref="C412" r:id="rId47" display="venkyrepalle2824@gmail.com1" xr:uid="{945A6660-5B33-4F82-B464-532FD9957B97}"/>
-    <hyperlink ref="C413" r:id="rId48" display="venkyrepalle2824@gmail.com1" xr:uid="{0B7FF7BA-1FA1-4BF8-B607-873D6EB2D8E2}"/>
-    <hyperlink ref="C414" r:id="rId49" display="venkyrepalle2824@gmail.com1" xr:uid="{50D163A5-FD1D-4F72-9489-F90BE5DF2A6F}"/>
-    <hyperlink ref="C415" r:id="rId50" display="venkyrepalle2824@gmail.com1" xr:uid="{60BF0DF3-1699-41A0-AD0A-B5F6ECD50A13}"/>
-    <hyperlink ref="C416" r:id="rId51" display="venkyrepalle2824@gmail.com1" xr:uid="{84A4D292-19BC-4A59-B261-60A362F49658}"/>
-    <hyperlink ref="C417" r:id="rId52" display="venkyrepalle2824@gmail.com1" xr:uid="{4D2B70E5-23AD-402C-944D-209821BEA6F6}"/>
-    <hyperlink ref="C418" r:id="rId53" display="venkyrepalle2824@gmail.com1" xr:uid="{A1F22CD9-6390-41EF-81C4-21F93C4980CA}"/>
-    <hyperlink ref="C419" r:id="rId54" display="venkyrepalle2824@gmail.com1" xr:uid="{FB457BA0-C4F4-4B4A-BDE3-36D3396350FA}"/>
-    <hyperlink ref="C420" r:id="rId55" display="venkyrepalle2824@gmail.com1" xr:uid="{6EBAAB92-925F-4259-AC01-955198C49C90}"/>
-    <hyperlink ref="C421" r:id="rId56" display="venkyrepalle2824@gmail.com1" xr:uid="{A11490B4-2ADD-407C-820C-BF6248B91769}"/>
-    <hyperlink ref="C422" r:id="rId57" display="venkyrepalle2824@gmail.com1" xr:uid="{AB9D3682-0725-4221-AE63-4F2122C0BCEC}"/>
-    <hyperlink ref="C423" r:id="rId58" display="venkyrepalle2824@gmail.com1" xr:uid="{09D9E7FD-6797-4B37-AE01-A6FA231E4697}"/>
-    <hyperlink ref="C424" r:id="rId59" display="venkyrepalle2824@gmail.com1" xr:uid="{B5FECEC3-1FF2-4712-8800-D861A773A49E}"/>
-    <hyperlink ref="C425" r:id="rId60" display="venkyrepalle2824@gmail.com1" xr:uid="{89C9D2B6-3A78-4B2F-BF3E-435CDB601962}"/>
-    <hyperlink ref="C426" r:id="rId61" display="venkyrepalle2824@gmail.com1" xr:uid="{EB59A82D-B822-428C-849A-5681FE1AF01D}"/>
-    <hyperlink ref="C427" r:id="rId62" display="venkyrepalle2824@gmail.com1" xr:uid="{001B9C6A-B181-4CA1-BDD5-F67E8449AA57}"/>
-    <hyperlink ref="C428" r:id="rId63" display="venkyrepalle2824@gmail.com1" xr:uid="{8641D90F-D278-412D-978F-2107133998F9}"/>
-    <hyperlink ref="C429" r:id="rId64" display="venkyrepalle2824@gmail.com1" xr:uid="{A5725337-F5C3-4798-AD6E-83C301997BA7}"/>
-    <hyperlink ref="C430" r:id="rId65" display="venkyrepalle2824@gmail.com1" xr:uid="{06DCAD08-8B82-43B4-855F-25ECE2B76D8C}"/>
-    <hyperlink ref="C431" r:id="rId66" display="venkyrepalle2824@gmail.com1" xr:uid="{38654F70-2FF2-4111-B041-9244103316CA}"/>
-    <hyperlink ref="C432" r:id="rId67" display="venkyrepalle2824@gmail.com1" xr:uid="{6A6A8E72-5ED8-4752-B64B-F317334F6F03}"/>
-    <hyperlink ref="C433" r:id="rId68" display="venkyrepalle2824@gmail.com1" xr:uid="{2A67856E-3DBD-47A6-A812-5F868C1562B8}"/>
-    <hyperlink ref="C434" r:id="rId69" display="venkyrepalle2824@gmail.com1" xr:uid="{CA3541D5-9A10-47CA-B426-7007EF2C87F2}"/>
-    <hyperlink ref="C435" r:id="rId70" display="venkyrepalle2824@gmail.com1" xr:uid="{95BCB2CD-DF79-4B4B-922E-36960085579F}"/>
-    <hyperlink ref="C436" r:id="rId71" display="venkyrepalle2824@gmail.com1" xr:uid="{3508F5B1-ED28-4ADB-A8AD-641DD533BBE3}"/>
-    <hyperlink ref="C437" r:id="rId72" display="venkyrepalle2824@gmail.com1" xr:uid="{A0942785-7D95-4EAD-BD43-7E8A4AA9BB6C}"/>
-    <hyperlink ref="C438" r:id="rId73" display="venkyrepalle2824@gmail.com1" xr:uid="{EEAF6EC3-7FDF-4376-9EE6-E39BA74ED388}"/>
-    <hyperlink ref="C439" r:id="rId74" display="venkyrepalle2824@gmail.com1" xr:uid="{DE1E8346-9BD3-448D-B5A8-BE71EA978772}"/>
-    <hyperlink ref="C440" r:id="rId75" display="venkyrepalle2824@gmail.com1" xr:uid="{250E136B-54B0-45A4-A0AA-42598CE1B7F1}"/>
-    <hyperlink ref="C441" r:id="rId76" display="venkyrepalle2824@gmail.com1" xr:uid="{A20A1258-2841-42D7-893B-269FBD77B3FD}"/>
-    <hyperlink ref="C442" r:id="rId77" display="venkyrepalle2824@gmail.com1" xr:uid="{B5DE6199-A386-4513-9039-CA4370CF7776}"/>
-    <hyperlink ref="C443" r:id="rId78" display="venkyrepalle2824@gmail.com1" xr:uid="{1EF98AB4-107B-4942-9858-CC231F46D726}"/>
-    <hyperlink ref="C444" r:id="rId79" display="venkyrepalle2824@gmail.com1" xr:uid="{FEBC95F3-DBCF-47FD-8BE0-E1D0F55146FE}"/>
-    <hyperlink ref="C445" r:id="rId80" display="venkyrepalle2824@gmail.com1" xr:uid="{DDAB877B-BA3B-48C1-B120-52F4D8330FFD}"/>
-    <hyperlink ref="C446" r:id="rId81" display="venkyrepalle2824@gmail.com1" xr:uid="{066DC6A6-7189-4F73-B936-C42AA8719B7E}"/>
-    <hyperlink ref="C447" r:id="rId82" display="venkyrepalle2824@gmail.com1" xr:uid="{8DE7C70B-6EB7-4A5B-AA86-0FC6F3352CC6}"/>
-    <hyperlink ref="C448" r:id="rId83" display="venkyrepalle2824@gmail.com1" xr:uid="{5EB64077-44BC-4AA1-8D3C-7412441AF63C}"/>
-    <hyperlink ref="C449" r:id="rId84" display="venkyrepalle2824@gmail.com1" xr:uid="{FB29CB94-D0B2-43BC-A15C-95F355D85AB9}"/>
-    <hyperlink ref="C450" r:id="rId85" display="venkyrepalle2824@gmail.com1" xr:uid="{85862B5E-2C87-436D-928E-5137DD72256F}"/>
-    <hyperlink ref="C451" r:id="rId86" display="venkyrepalle2824@gmail.com1" xr:uid="{8C6FA610-6470-46D7-982A-226184D03F78}"/>
-    <hyperlink ref="C452" r:id="rId87" display="venkyrepalle2824@gmail.com1" xr:uid="{2D0204D4-20D1-4B08-97A0-57BB92FCE725}"/>
-    <hyperlink ref="C453" r:id="rId88" display="venkyrepalle2824@gmail.com1" xr:uid="{473F88D6-BFD6-4A6C-841C-BDFB0C596C5D}"/>
-    <hyperlink ref="C454" r:id="rId89" display="venkyrepalle2824@gmail.com1" xr:uid="{16AC1E50-FC5D-4BE5-A791-1029A61E89B0}"/>
-    <hyperlink ref="C455" r:id="rId90" display="venkyrepalle2824@gmail.com1" xr:uid="{FDC729F0-328D-4B32-AE62-CF4EAF468F70}"/>
-    <hyperlink ref="C456" r:id="rId91" display="venkyrepalle2824@gmail.com1" xr:uid="{907B68B1-0B76-45F1-ADF6-96A03780948D}"/>
-    <hyperlink ref="C457" r:id="rId92" display="venkyrepalle2824@gmail.com1" xr:uid="{6681B403-ACD1-4275-8CDF-C5F5404FF34B}"/>
-    <hyperlink ref="C458" r:id="rId93" display="venkyrepalle2824@gmail.com1" xr:uid="{F38685DA-5035-4199-B543-814665E00FB0}"/>
-    <hyperlink ref="C459" r:id="rId94" display="venkyrepalle2824@gmail.com1" xr:uid="{BEEBB1F2-3CBC-4E86-AF3D-ED78E3F42829}"/>
-    <hyperlink ref="C460" r:id="rId95" display="venkyrepalle2824@gmail.com1" xr:uid="{049353A3-BAE8-45C9-B2C2-C1E810A99BC8}"/>
-    <hyperlink ref="C461" r:id="rId96" display="venkyrepalle2824@gmail.com1" xr:uid="{7DA7A11C-4751-40FE-A447-95AF83050350}"/>
-    <hyperlink ref="C462" r:id="rId97" display="venkyrepalle2824@gmail.com1" xr:uid="{4AA08D7A-6F41-4FBE-818B-5D52C643BAFC}"/>
-    <hyperlink ref="C463" r:id="rId98" display="venkyrepalle2824@gmail.com1" xr:uid="{C36D2376-99FA-497F-99F6-E23A79238C70}"/>
-    <hyperlink ref="C464" r:id="rId99" display="venkyrepalle2824@gmail.com1" xr:uid="{8B04E4C0-A909-47F5-B1BC-6CEF0B1A2FFD}"/>
-    <hyperlink ref="C465" r:id="rId100" display="venkyrepalle2824@gmail.com1" xr:uid="{2F4B4C11-4AB1-40DF-A456-E9338CD11CCC}"/>
-    <hyperlink ref="C466" r:id="rId101" display="venkyrepalle2824@gmail.com1" xr:uid="{3CADB9A4-36BC-4F65-B8BC-DB8E9C567A15}"/>
-    <hyperlink ref="C467" r:id="rId102" display="venkyrepalle2824@gmail.com1" xr:uid="{B2CACD9C-C4DE-42A2-ABB6-57C2451FF211}"/>
-    <hyperlink ref="C468" r:id="rId103" display="venkyrepalle2824@gmail.com1" xr:uid="{904910E4-75D8-4E36-B3CC-FDF36D7034DD}"/>
-    <hyperlink ref="C469" r:id="rId104" display="venkyrepalle2824@gmail.com1" xr:uid="{6B6ED1D7-F381-43A1-94D9-943AD5E741F2}"/>
-    <hyperlink ref="C470" r:id="rId105" display="venkyrepalle2824@gmail.com1" xr:uid="{B4CFC2D3-9319-4792-982E-7344A0BD1D33}"/>
-    <hyperlink ref="C471" r:id="rId106" display="venkyrepalle2824@gmail.com1" xr:uid="{36B1FE3F-C7D1-4723-AAC5-2DB7E486EC97}"/>
-    <hyperlink ref="C472" r:id="rId107" display="venkyrepalle2824@gmail.com1" xr:uid="{DE223F90-DEFC-4DB7-B467-8E5DDA7274B9}"/>
-    <hyperlink ref="C473" r:id="rId108" display="venkyrepalle2824@gmail.com1" xr:uid="{278D8CEE-8B57-4AC1-9050-FA8C5B9D7C26}"/>
-    <hyperlink ref="C474" r:id="rId109" display="venkyrepalle2824@gmail.com1" xr:uid="{43708840-4446-4A72-B8CB-9C20D321ABAE}"/>
-    <hyperlink ref="C475" r:id="rId110" display="venkyrepalle2824@gmail.com1" xr:uid="{84A20331-0B55-41AD-83D5-AB400D5680D3}"/>
-    <hyperlink ref="C476" r:id="rId111" display="venkyrepalle2824@gmail.com1" xr:uid="{D2C0BD54-0DFF-447D-AC04-B0DD69CA19FF}"/>
-    <hyperlink ref="C477" r:id="rId112" display="venkyrepalle2824@gmail.com1" xr:uid="{25F0CE9B-82E2-4E38-926A-A0F78F6FF559}"/>
-    <hyperlink ref="C478" r:id="rId113" display="venkyrepalle2824@gmail.com1" xr:uid="{26A0A38A-C829-4914-98F9-690C406A4EB0}"/>
-    <hyperlink ref="C479" r:id="rId114" display="venkyrepalle2824@gmail.com1" xr:uid="{EF8DB0BA-F7F4-45BE-B93C-6DECBC48EBE7}"/>
-    <hyperlink ref="C480" r:id="rId115" display="venkyrepalle2824@gmail.com1" xr:uid="{1F99B615-1BE4-4131-A2C4-24ED4FCD1B1D}"/>
-    <hyperlink ref="C481" r:id="rId116" display="venkyrepalle2824@gmail.com1" xr:uid="{9C67A1A1-E392-4422-91AD-A9DFD4D156EA}"/>
-    <hyperlink ref="C482" r:id="rId117" display="venkyrepalle2824@gmail.com1" xr:uid="{50A8A30A-3B6A-468C-BF9A-FED97B180C71}"/>
-    <hyperlink ref="C483" r:id="rId118" display="venkyrepalle2824@gmail.com1" xr:uid="{7DA6894F-EA26-4773-A190-75D1B44D80AE}"/>
-    <hyperlink ref="C484" r:id="rId119" display="venkyrepalle2824@gmail.com1" xr:uid="{D0BBC62A-9AC7-4ED0-9641-45E20261A512}"/>
-    <hyperlink ref="C485" r:id="rId120" display="venkyrepalle2824@gmail.com1" xr:uid="{4F6C9373-6730-4D83-BFFB-57D3EFCC0A60}"/>
-    <hyperlink ref="C486" r:id="rId121" display="venkyrepalle2824@gmail.com1" xr:uid="{6406A811-1426-453D-AF9E-BEC1A6FB2A87}"/>
-    <hyperlink ref="C487" r:id="rId122" display="venkyrepalle2824@gmail.com1" xr:uid="{9D6F89DB-1F8A-4C9F-8690-147F13B457AA}"/>
-    <hyperlink ref="C488" r:id="rId123" display="venkyrepalle2824@gmail.com1" xr:uid="{12807FF0-FB53-4227-8E5B-F30B36175954}"/>
-    <hyperlink ref="C489" r:id="rId124" display="venkyrepalle2824@gmail.com1" xr:uid="{08C529C6-A1EE-4240-B579-259DCAA51796}"/>
-    <hyperlink ref="C490" r:id="rId125" display="venkyrepalle2824@gmail.com1" xr:uid="{4376D856-A060-46F7-9082-26DACC16AAA4}"/>
-    <hyperlink ref="C491" r:id="rId126" display="venkyrepalle2824@gmail.com1" xr:uid="{F4BAE805-39CF-44E3-8FC0-5ED9BBD022EF}"/>
-    <hyperlink ref="C492" r:id="rId127" display="venkyrepalle2824@gmail.com1" xr:uid="{F5FD1E9B-8A90-460B-AC74-73A8E6FC05B9}"/>
-    <hyperlink ref="C493" r:id="rId128" display="venkyrepalle2824@gmail.com1" xr:uid="{21B837E4-D1F0-4B86-ADDB-E03D4F750D75}"/>
-    <hyperlink ref="C494" r:id="rId129" display="venkyrepalle2824@gmail.com1" xr:uid="{2EFE0F3F-2C64-4A9C-99DD-26256C877E14}"/>
-    <hyperlink ref="C495" r:id="rId130" display="venkyrepalle2824@gmail.com1" xr:uid="{1B7F6755-DAE0-4BF7-AEAA-ECBEB7BCF6EA}"/>
-    <hyperlink ref="C496" r:id="rId131" display="venkyrepalle2824@gmail.com1" xr:uid="{70BD136A-EA70-4967-83BA-EFF3878BDC50}"/>
-    <hyperlink ref="C497" r:id="rId132" display="venkyrepalle2824@gmail.com1" xr:uid="{9E9B0861-3796-406D-BE47-5DA38390770E}"/>
-    <hyperlink ref="C498" r:id="rId133" display="venkyrepalle2824@gmail.com1" xr:uid="{6420EE0E-F26F-4148-9F07-2BBC5B7CCEF9}"/>
-    <hyperlink ref="C499" r:id="rId134" display="venkyrepalle2824@gmail.com1" xr:uid="{2A4F938E-32F1-42DA-8A13-7076B5604913}"/>
-    <hyperlink ref="C500" r:id="rId135" display="venkyrepalle2824@gmail.com1" xr:uid="{01B202BB-730B-49ED-B9C0-5E9D158401E4}"/>
-    <hyperlink ref="C501" r:id="rId136" display="venkyrepalle2824@gmail.com1" xr:uid="{05D751FE-6F26-479E-B164-2ADEEDD2FD63}"/>
-    <hyperlink ref="C502" r:id="rId137" display="venkyrepalle2824@gmail.com1" xr:uid="{8F631374-39E2-42BD-BC3A-A16B2316B4AE}"/>
-    <hyperlink ref="C503" r:id="rId138" display="venkyrepalle2824@gmail.com1" xr:uid="{C36752E2-1D0A-477A-8597-B5165DCDD102}"/>
-    <hyperlink ref="C504" r:id="rId139" display="venkyrepalle2824@gmail.com1" xr:uid="{6F4FBAA6-AFD9-48B1-BAC9-FE30EE580468}"/>
-    <hyperlink ref="C505" r:id="rId140" display="venkyrepalle2824@gmail.com1" xr:uid="{64FEAF85-A9C9-4E23-A896-2727C1E98DFB}"/>
-    <hyperlink ref="C506" r:id="rId141" display="venkyrepalle2824@gmail.com1" xr:uid="{F991CC3B-D37B-46CB-B689-E4BEAE429EEE}"/>
-    <hyperlink ref="C507" r:id="rId142" display="venkyrepalle2824@gmail.com1" xr:uid="{30AB871D-6345-4BC9-BBE2-D7E24A61B5B5}"/>
-    <hyperlink ref="C508" r:id="rId143" display="venkyrepalle2824@gmail.com1" xr:uid="{0E9346E9-1BE9-47FD-979B-AA0A0153667F}"/>
-    <hyperlink ref="C509" r:id="rId144" display="venkyrepalle2824@gmail.com1" xr:uid="{F7A6A37E-D825-4537-BEB9-0F2D9940D487}"/>
-    <hyperlink ref="C510" r:id="rId145" display="venkyrepalle2824@gmail.com1" xr:uid="{6C66CD2A-737C-42F4-8D03-5C501083DE9F}"/>
-    <hyperlink ref="C511" r:id="rId146" display="venkyrepalle2824@gmail.com1" xr:uid="{10152B2F-F76E-47C0-BCEC-273E30627D4C}"/>
-    <hyperlink ref="C512" r:id="rId147" display="venkyrepalle2824@gmail.com1" xr:uid="{A311648F-9E20-4AB0-8B7A-6138C0D1CB78}"/>
-    <hyperlink ref="C513" r:id="rId148" display="venkyrepalle2824@gmail.com1" xr:uid="{55C5A99F-1A09-496A-AF5A-8DEE54A94BAD}"/>
-    <hyperlink ref="C514" r:id="rId149" display="venkyrepalle2824@gmail.com1" xr:uid="{9341761B-201B-465A-89B1-7482056723E3}"/>
-    <hyperlink ref="C515" r:id="rId150" display="venkyrepalle2824@gmail.com1" xr:uid="{C8AE608D-D696-44B0-9AA5-56BE9E0DD9BA}"/>
-    <hyperlink ref="C516" r:id="rId151" display="venkyrepalle2824@gmail.com1" xr:uid="{4D406228-AB0A-4395-ADFB-5D5FBCDD5B13}"/>
-    <hyperlink ref="C517" r:id="rId152" display="venkyrepalle2824@gmail.com1" xr:uid="{E0DA72FC-17BD-4AFC-A02E-3C1220C84294}"/>
-    <hyperlink ref="C518" r:id="rId153" display="venkyrepalle2824@gmail.com1" xr:uid="{ECBEDB6D-AB5E-4CF9-85AD-ADE815D0BF41}"/>
-    <hyperlink ref="C519" r:id="rId154" display="venkyrepalle2824@gmail.com1" xr:uid="{B8D81A95-1D4E-4E34-A6EF-BB76D12808FB}"/>
-    <hyperlink ref="C520" r:id="rId155" display="venkyrepalle2824@gmail.com1" xr:uid="{FE1622AA-5957-4336-900F-2BBAFF50FF67}"/>
-    <hyperlink ref="C521" r:id="rId156" display="venkyrepalle2824@gmail.com1" xr:uid="{D8159454-9537-4912-ABD9-6F312C718EC1}"/>
-    <hyperlink ref="C522" r:id="rId157" display="venkyrepalle2824@gmail.com1" xr:uid="{3DACAF44-F6E5-4359-AD7C-6049B377CBD1}"/>
-    <hyperlink ref="C523" r:id="rId158" display="venkyrepalle2824@gmail.com1" xr:uid="{A072D1C1-1C2A-4133-B5BC-4EB93E3D27C7}"/>
-    <hyperlink ref="C524" r:id="rId159" display="venkyrepalle2824@gmail.com1" xr:uid="{1666DAAE-894C-401F-9926-CD59994E1801}"/>
-    <hyperlink ref="C525" r:id="rId160" display="venkyrepalle2824@gmail.com1" xr:uid="{C613D2F3-42F4-466D-A32F-FE6468CD82D5}"/>
-    <hyperlink ref="C526" r:id="rId161" display="venkyrepalle2824@gmail.com1" xr:uid="{DDE7958B-618E-4353-91CA-9336ACAAE528}"/>
-    <hyperlink ref="C527" r:id="rId162" display="venkyrepalle2824@gmail.com1" xr:uid="{14FC0006-F0BE-4D96-844F-7B16BC285BAB}"/>
-    <hyperlink ref="C528" r:id="rId163" display="venkyrepalle2824@gmail.com1" xr:uid="{FAFD73F7-5196-4998-9322-CEC73C871B7B}"/>
-    <hyperlink ref="C529" r:id="rId164" display="venkyrepalle2824@gmail.com1" xr:uid="{7C480BA3-0531-47B7-81FE-F90059990C94}"/>
-    <hyperlink ref="C530" r:id="rId165" display="venkyrepalle2824@gmail.com1" xr:uid="{4E2C25E0-5056-4C2B-9BDB-DE72E0A5C83D}"/>
-    <hyperlink ref="C531" r:id="rId166" display="venkyrepalle2824@gmail.com1" xr:uid="{7990B56C-50C6-45FA-BC9B-AE40A365F76A}"/>
-    <hyperlink ref="C532" r:id="rId167" display="venkyrepalle2824@gmail.com1" xr:uid="{C47C5470-B5E2-4FFA-A388-8F8D4F344B88}"/>
-    <hyperlink ref="C533" r:id="rId168" display="venkyrepalle2824@gmail.com1" xr:uid="{B367F629-0AF2-4A71-9DC7-DF1EC25200A1}"/>
-    <hyperlink ref="C534" r:id="rId169" display="venkyrepalle2824@gmail.com1" xr:uid="{2A4151AD-DC65-4532-A935-072AD509F964}"/>
-    <hyperlink ref="C535" r:id="rId170" display="venkyrepalle2824@gmail.com1" xr:uid="{057C4A27-82B6-4772-AFF9-F97D61394CC8}"/>
-    <hyperlink ref="C536" r:id="rId171" display="venkyrepalle2824@gmail.com1" xr:uid="{7E6961B0-81B7-4ACA-9CC7-77B05AC58288}"/>
-    <hyperlink ref="C537" r:id="rId172" display="venkyrepalle2824@gmail.com1" xr:uid="{E74B6AB9-33DF-48E5-BAF6-06A59595D8C7}"/>
-    <hyperlink ref="C538" r:id="rId173" display="venkyrepalle2824@gmail.com1" xr:uid="{FD2FF5D8-BF4A-4E04-B648-09B8431D10E6}"/>
-    <hyperlink ref="C539" r:id="rId174" display="venkyrepalle2824@gmail.com1" xr:uid="{7ABF2F50-E6F2-44B8-85CC-DD613EA85286}"/>
-    <hyperlink ref="C540" r:id="rId175" display="venkyrepalle2824@gmail.com1" xr:uid="{AA4F2222-A42D-4FB0-A46A-87B4CE67735F}"/>
-    <hyperlink ref="C541" r:id="rId176" display="venkyrepalle2824@gmail.com1" xr:uid="{09C2738E-8B85-4006-8F44-1E89C6D64B4D}"/>
-    <hyperlink ref="C542" r:id="rId177" display="venkyrepalle2824@gmail.com1" xr:uid="{966DDE70-8CED-4ED9-98CD-8AF886D1CE1E}"/>
-    <hyperlink ref="C543" r:id="rId178" display="venkyrepalle2824@gmail.com1" xr:uid="{EE2D8D50-DA8B-4B6E-9251-864A0CC6125A}"/>
-    <hyperlink ref="C544" r:id="rId179" display="venkyrepalle2824@gmail.com1" xr:uid="{912F3114-F782-462F-9DE3-5CED1D7BA46D}"/>
-    <hyperlink ref="C545" r:id="rId180" display="venkyrepalle2824@gmail.com1" xr:uid="{B8EF67D4-3ACE-47FF-BF18-913EA995FA5B}"/>
-    <hyperlink ref="C546" r:id="rId181" display="venkyrepalle2824@gmail.com1" xr:uid="{B53358BA-D532-4A3C-A604-8D3BE38F997F}"/>
-    <hyperlink ref="C547" r:id="rId182" display="venkyrepalle2824@gmail.com1" xr:uid="{7423B760-042D-4BDB-92F5-C0A3C94A1F59}"/>
-    <hyperlink ref="C548" r:id="rId183" display="venkyrepalle2824@gmail.com1" xr:uid="{A8ACA1F3-4D34-486E-B953-E033057E5BCE}"/>
-    <hyperlink ref="C549" r:id="rId184" display="venkyrepalle2824@gmail.com1" xr:uid="{AE2E00F7-7F66-4E88-B4C8-A6D0E3F92937}"/>
-    <hyperlink ref="C550" r:id="rId185" display="venkyrepalle2824@gmail.com1" xr:uid="{171072B0-E20A-4EFD-8626-014370662065}"/>
-    <hyperlink ref="C551" r:id="rId186" display="venkyrepalle2824@gmail.com1" xr:uid="{464AE2D9-8A6B-4AF1-B9DF-24F20DC8AF73}"/>
-    <hyperlink ref="C552" r:id="rId187" display="venkyrepalle2824@gmail.com1" xr:uid="{A379D14E-5962-422B-9AA5-A690D3D305F8}"/>
-    <hyperlink ref="C553" r:id="rId188" display="venkyrepalle2824@gmail.com1" xr:uid="{B0E4A031-CC35-4D59-81FF-E772EB883D8E}"/>
-    <hyperlink ref="C554" r:id="rId189" display="venkyrepalle2824@gmail.com1" xr:uid="{0FC20528-0CD3-44EA-84C6-E20CE722719A}"/>
-    <hyperlink ref="C555" r:id="rId190" display="venkyrepalle2824@gmail.com1" xr:uid="{3DFD013E-1A58-4DC1-9C1F-81A22913D6B4}"/>
-    <hyperlink ref="C556" r:id="rId191" display="venkyrepalle2824@gmail.com1" xr:uid="{8DBCA7CA-341E-419B-BF5D-004E4AA94FFD}"/>
-    <hyperlink ref="C557" r:id="rId192" display="venkyrepalle2824@gmail.com1" xr:uid="{8DA16A09-8A14-4CF4-99DA-97C1F5ED9E8C}"/>
-    <hyperlink ref="C558" r:id="rId193" display="venkyrepalle2824@gmail.com1" xr:uid="{1D7AA55B-5750-48E5-84BA-78DA38E7A7EA}"/>
-    <hyperlink ref="C559" r:id="rId194" display="venkyrepalle2824@gmail.com1" xr:uid="{F63568F8-8794-43BB-9043-CB0C2977A6DF}"/>
-    <hyperlink ref="C560" r:id="rId195" display="venkyrepalle2824@gmail.com1" xr:uid="{AEFA6AE2-B059-4C0E-9593-705C24E46C58}"/>
-    <hyperlink ref="C561" r:id="rId196" display="venkyrepalle2824@gmail.com1" xr:uid="{E6C9A36D-8B4F-4DF6-89E3-5C34EA170077}"/>
-    <hyperlink ref="C562" r:id="rId197" display="venkyrepalle2824@gmail.com1" xr:uid="{73399007-95E4-41B8-87D6-B389080B39D8}"/>
-    <hyperlink ref="C563" r:id="rId198" display="venkyrepalle2824@gmail.com1" xr:uid="{4FFA70EA-B0D6-4CB3-BFA5-B7E95BA18280}"/>
-    <hyperlink ref="C564" r:id="rId199" display="venkyrepalle2824@gmail.com1" xr:uid="{102C6950-5AA9-4AF0-92C8-DFD51854BD15}"/>
-    <hyperlink ref="C565" r:id="rId200" display="venkyrepalle2824@gmail.com1" xr:uid="{19092DB1-D2D2-4CF2-A40A-C0C4516947FA}"/>
-    <hyperlink ref="C566" r:id="rId201" display="venkyrepalle2824@gmail.com1" xr:uid="{83612D57-9565-4875-A21A-32A1FAE94A5A}"/>
-    <hyperlink ref="C567" r:id="rId202" display="venkyrepalle2824@gmail.com1" xr:uid="{F1CFFDA7-22CD-412D-B16C-3C2FCA3F6ABF}"/>
-    <hyperlink ref="C568" r:id="rId203" display="venkyrepalle2824@gmail.com1" xr:uid="{DF091E23-D879-4C33-AAAD-98738BCCB083}"/>
-    <hyperlink ref="C569" r:id="rId204" display="venkyrepalle2824@gmail.com1" xr:uid="{8F460AF3-78B3-42D3-8425-508DD956E6E0}"/>
-    <hyperlink ref="C570" r:id="rId205" display="venkyrepalle2824@gmail.com1" xr:uid="{1B81630F-5F0C-4282-8BFB-92BB923FDBF8}"/>
-    <hyperlink ref="C571" r:id="rId206" display="venkyrepalle2824@gmail.com1" xr:uid="{C3B1F96F-B837-4C2A-9CF2-140E4D66A5FD}"/>
-    <hyperlink ref="C572" r:id="rId207" display="venkyrepalle2824@gmail.com1" xr:uid="{75D24018-ACD3-416C-AE6A-BA4FC6BDCE5B}"/>
-    <hyperlink ref="C573" r:id="rId208" display="venkyrepalle2824@gmail.com1" xr:uid="{1633FD35-2EB8-4B3D-9724-05208F37F07F}"/>
-    <hyperlink ref="C574" r:id="rId209" display="venkyrepalle2824@gmail.com1" xr:uid="{00B560B6-1022-44C8-9EAA-87EE3F71E69B}"/>
-    <hyperlink ref="C575" r:id="rId210" display="venkyrepalle2824@gmail.com1" xr:uid="{C26F75C5-6E0C-4574-8F86-8877FFC6F257}"/>
-    <hyperlink ref="C576" r:id="rId211" display="venkyrepalle2824@gmail.com1" xr:uid="{AE06A280-9C3B-4E53-AF74-AC7593E78097}"/>
-    <hyperlink ref="C577" r:id="rId212" display="venkyrepalle2824@gmail.com1" xr:uid="{2EA8AC41-34B9-4CEE-8BA4-B45697E5DA49}"/>
-    <hyperlink ref="C578" r:id="rId213" display="venkyrepalle2824@gmail.com1" xr:uid="{12EFC582-47E6-4007-9C01-2349BD57CEDD}"/>
-    <hyperlink ref="C579" r:id="rId214" display="venkyrepalle2824@gmail.com1" xr:uid="{F01C8C17-0BC2-4744-A34E-FE90D4CB68DF}"/>
-    <hyperlink ref="C580" r:id="rId215" display="venkyrepalle2824@gmail.com1" xr:uid="{C5BE7B54-3016-464E-905B-1E49B0DD39C2}"/>
-    <hyperlink ref="C581" r:id="rId216" display="venkyrepalle2824@gmail.com1" xr:uid="{E57FE6BA-5FDA-4637-9D4E-E47E57498980}"/>
-    <hyperlink ref="C582" r:id="rId217" display="venkyrepalle2824@gmail.com1" xr:uid="{AB186B4A-18FC-46F1-AF5A-C32A33510E63}"/>
-    <hyperlink ref="C583" r:id="rId218" display="venkyrepalle2824@gmail.com1" xr:uid="{03C1566C-8CDD-46E1-9DE8-DA3EB869D625}"/>
-    <hyperlink ref="C584" r:id="rId219" display="venkyrepalle2824@gmail.com1" xr:uid="{050C777B-4D77-4078-915D-08FB3D743225}"/>
-    <hyperlink ref="C585" r:id="rId220" display="venkyrepalle2824@gmail.com1" xr:uid="{44D1AF64-8FFC-435F-917A-E64C9E3555E1}"/>
-    <hyperlink ref="C586" r:id="rId221" display="venkyrepalle2824@gmail.com1" xr:uid="{D0A93E27-5520-4E4F-9C01-175567436A7D}"/>
-    <hyperlink ref="C587" r:id="rId222" display="venkyrepalle2824@gmail.com1" xr:uid="{347A99C8-B41F-4319-96C4-6C458A410C93}"/>
-    <hyperlink ref="C588" r:id="rId223" display="venkyrepalle2824@gmail.com1" xr:uid="{BD9BCD57-FA1C-4C57-A899-F5DD7D2B5812}"/>
-    <hyperlink ref="C589" r:id="rId224" display="venkyrepalle2824@gmail.com1" xr:uid="{7085AE2E-90EE-42E6-B684-1213A34BF2A6}"/>
-    <hyperlink ref="C590" r:id="rId225" display="venkyrepalle2824@gmail.com1" xr:uid="{2F013EF7-BF71-4B91-A566-2A824A46B2D3}"/>
-    <hyperlink ref="C591" r:id="rId226" display="venkyrepalle2824@gmail.com1" xr:uid="{6DB127C8-56C6-4322-AC56-ED59E70DC9BD}"/>
-    <hyperlink ref="C592" r:id="rId227" display="venkyrepalle2824@gmail.com1" xr:uid="{4F13749B-9868-46CC-B966-FE23C2FA1695}"/>
-    <hyperlink ref="C593" r:id="rId228" display="venkyrepalle2824@gmail.com1" xr:uid="{3C2FD2F0-68A5-4465-915F-84261E3E992E}"/>
-    <hyperlink ref="C594" r:id="rId229" display="venkyrepalle2824@gmail.com1" xr:uid="{30D890A6-F578-4E06-9021-1665BC013FEF}"/>
-    <hyperlink ref="C595" r:id="rId230" display="venkyrepalle2824@gmail.com1" xr:uid="{98E116BE-4B9B-4EFD-A81A-468DA9474E90}"/>
-    <hyperlink ref="C596" r:id="rId231" display="venkyrepalle2824@gmail.com1" xr:uid="{D19E35E8-DD7A-4363-B804-574C974DBCA2}"/>
-    <hyperlink ref="C597" r:id="rId232" display="venkyrepalle2824@gmail.com1" xr:uid="{5636A140-7919-49E3-8BBA-29B17EF21D55}"/>
-    <hyperlink ref="C598" r:id="rId233" display="venkyrepalle2824@gmail.com1" xr:uid="{A65F1B54-A2C7-4C86-B77D-9FEB671002B6}"/>
-    <hyperlink ref="C599" r:id="rId234" display="venkyrepalle2824@gmail.com1" xr:uid="{FAEF5411-477C-4444-A089-201DF20B8E8E}"/>
-    <hyperlink ref="C600" r:id="rId235" display="venkyrepalle2824@gmail.com1" xr:uid="{B551C736-225E-4F1D-B023-CD8B84709DED}"/>
+    <hyperlink ref="C3:C600" r:id="rId2" display="venkyrepalle2824@gmail.com370" xr:uid="{1BC49555-9C50-4AD9-8AEA-C97A1797068D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId236"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;L_x000D_&amp;1#&amp;"Tahoma"&amp;9&amp;KCF022B C2 - Restricted use </oddFooter>
   </headerFooter>
